--- a/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2015/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2015/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2015/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,14 +587,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,12</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>19,96</t>
+          <t>15,41</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 6,25</t>
+          <t>-10,25; 18,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 1,48</t>
+          <t>-1,15; 33,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 30,25</t>
+          <t>-1,58; 35,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 6,28</t>
+          <t>-1,25; 39,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,24</t>
+          <t>-1,15; 21,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 38,47</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 5,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-5,91; 1,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 29,94</t>
+          <t>3,66; 28,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,94%</t>
+          <t>238,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>146,39%</t>
+          <t>357,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>322,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>162,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>219,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-22,67%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>175,34%</t>
+          <t>271,97%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 66,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 17,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,24; 289,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 78,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,92; 41,59</t>
+          <t>-36,96; 1414,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,65; 465,27</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-20,21; 54,1</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-44,36; 12,9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>88,61; 300,86</t>
+          <t>-0,5; 1874,64</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,57</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,87</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>-2,44</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>25,33</t>
         </is>
       </c>
     </row>
@@ -911,37 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 48,58</t>
+          <t>-6,59; 7,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 7,9</t>
+          <t>-9,37; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 3,83</t>
+          <t>-5,68; 4,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 45,62</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-5,68; 4,59</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
           <t>-7,66; 2,26</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,88; 41,76</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>189,95%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>-23,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,47%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>181,87%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-4,53%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>-18,31%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>189,73%</t>
         </is>
       </c>
     </row>
@@ -1017,44 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,8; 397,66</t>
+          <t>-44,75; 102,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 102,27</t>
+          <t>-63,55; 49,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 49,59</t>
+          <t>-35,91; 41,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 507,52</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-35,91; 41,88</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
           <t>-48,31; 21,91</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>82,88; 376,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,03</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,91</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>32,43</t>
+          <t>-2,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,0</t>
+          <t>-4,71; 6,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,41</t>
+          <t>-8,56; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,62; 51,57</t>
+          <t>-4,74; 6,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,18</t>
+          <t>-6,55; 3,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,67</t>
+          <t>-2,7; 5,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,82; 48,78</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 8,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 5,09</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>21,88; 43,87</t>
+          <t>-5,91; 1,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>-29,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>424,22%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>-13,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>317,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>54,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15,59%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>364,0%</t>
+          <t>-22,67%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 176,58</t>
+          <t>-32,07; 66,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 112,19</t>
+          <t>-56,52; 17,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>189,98; 838,31</t>
+          <t>-33,08; 78,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 144,28</t>
+          <t>-48,92; 41,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 89,76</t>
+          <t>-20,21; 54,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>133,7; 652,67</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 119,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-23,51; 70,74</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>210,19; 589,37</t>
+          <t>-44,36; 12,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>52,05</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,35</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>70,54</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>9,18</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>15,41</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>61,14</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 18,17</t>
+          <t>-5,03; 5,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 33,06</t>
+          <t>-5,79; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 88,76</t>
+          <t>-0,71; 10,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 35,19</t>
+          <t>-3,73; 5,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 39,65</t>
+          <t>-1,62; 6,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,88; 95,26</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 21,24</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,66; 28,02</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>29,02; 82,74</t>
+          <t>-3,18; 3,89</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>238,38%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>805,91%</t>
+          <t>75,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>357,45%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>322,34%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1481,3%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>162,02%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>271,97%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>1079,36%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,79; 89,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,58; 78,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,45; 245,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,18; 122,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,78; 101,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-36,96; 1414,84</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 1874,64</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>250,75; 5343,54</t>
+          <t>-33,44; 66,79</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>50,28</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>56,54</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>53,21</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,68</t>
+          <t>0,15; 10,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 5,27</t>
+          <t>-3,05; 6,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,12; 64,72</t>
+          <t>-0,89; 10,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 10,3</t>
+          <t>-3,91; 6,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,21</t>
+          <t>0,79; 8,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,03; 72,54</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 6,2</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 3,89</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>41,86; 65,19</t>
+          <t>-2,61; 5,09</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>66,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>544,91%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>878,5%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>31,31%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>675,23%</t>
+          <t>15,59%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 89,67</t>
+          <t>0,92; 176,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 78,76</t>
+          <t>-30,19; 112,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>296,17; 1015,46</t>
+          <t>-8,42; 144,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 245,6</t>
+          <t>-34,31; 89,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 122,35</t>
+          <t>6,59; 119,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>434,65; 1696,7</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-17,78; 101,22</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-33,44; 66,79</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>446,69; 1044,32</t>
+          <t>-23,51; 70,74</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>31,71</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>35,44</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
           <t>-0,14</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>33,41</t>
         </is>
       </c>
     </row>
@@ -1775,37 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23,23; 39,63</t>
+          <t>0,6; 6,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,04</t>
+          <t>-2,38; 2,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,97</t>
+          <t>0,42; 4,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,1; 44,23</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 4,39</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
           <t>-1,91; 1,84</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>27,62; 39,28</t>
         </is>
       </c>
     </row>
@@ -1828,37 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>298,59%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>377,39%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>25,26%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
           <t>-1,42%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>333,54%</t>
         </is>
       </c>
     </row>
@@ -1881,48 +1505,33 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>203,24; 412,19</t>
+          <t>5,51; 74,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,51; 74,71</t>
+          <t>-22,59; 36,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 36,73</t>
+          <t>4,05; 48,48</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>263,54; 530,34</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>4,05; 48,48</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
           <t>-17,42; 20,1</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>254,41; 417,04</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>

--- a/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 18,17</t>
+          <t>-10,01; 19,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 33,06</t>
+          <t>-1,21; 32,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 35,19</t>
+          <t>-0,68; 37,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 39,65</t>
+          <t>-0,86; 37,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 21,24</t>
+          <t>-1,98; 22,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 28,02</t>
+          <t>3,75; 27,83</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-42,31; —</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,96; 1414,84</t>
+          <t>-47,36; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1874,64</t>
+          <t>8,44; 2005,55</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 5,75</t>
+          <t>-9,49; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,14</t>
+          <t>-9,97; 5,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 7,9</t>
+          <t>-6,27; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 3,83</t>
+          <t>-9,35; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 4,59</t>
+          <t>-5,59; 4,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 2,26</t>
+          <t>-7,74; 2,57</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 51,84</t>
+          <t>-50,97; 54,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,16; 55,99</t>
+          <t>-53,3; 49,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 102,27</t>
+          <t>-43,79; 113,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 49,59</t>
+          <t>-64,4; 59,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 41,88</t>
+          <t>-35,04; 43,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,31; 21,91</t>
+          <t>-47,79; 22,22</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 6,25</t>
+          <t>-4,09; 6,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 1,48</t>
+          <t>-9,07; 1,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 6,28</t>
+          <t>-3,94; 6,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,24</t>
+          <t>-7,11; 3,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,07</t>
+          <t>-2,39; 4,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,2</t>
+          <t>-6,0; 0,8</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 66,16</t>
+          <t>-28,79; 76,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 17,42</t>
+          <t>-59,43; 14,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 78,08</t>
+          <t>-30,48; 89,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,92; 41,59</t>
+          <t>-50,23; 40,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 54,1</t>
+          <t>-18,21; 52,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 12,9</t>
+          <t>-45,71; 8,96</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,68</t>
+          <t>-5,05; 5,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 5,27</t>
+          <t>-5,63; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 10,3</t>
+          <t>-0,17; 10,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,21</t>
+          <t>-3,52; 5,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,2</t>
+          <t>-1,54; 5,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,89</t>
+          <t>-3,21; 4,11</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 89,67</t>
+          <t>-42,59; 87,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 78,76</t>
+          <t>-47,74; 78,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 245,6</t>
+          <t>-6,79; 243,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 122,35</t>
+          <t>-42,05; 124,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 101,22</t>
+          <t>-15,58; 99,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 66,79</t>
+          <t>-33,92; 71,36</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,0</t>
+          <t>0,13; 10,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,41</t>
+          <t>-2,81; 6,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,18</t>
+          <t>-1,16; 9,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,67</t>
+          <t>-4,15; 6,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,45</t>
+          <t>1,13; 8,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,09</t>
+          <t>-2,06; 5,17</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,92; 176,58</t>
+          <t>-0,88; 187,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 112,19</t>
+          <t>-28,25; 121,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 144,28</t>
+          <t>-10,83; 132,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 89,76</t>
+          <t>-32,77; 89,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,59; 119,52</t>
+          <t>9,42; 122,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 70,74</t>
+          <t>-20,37; 73,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,61</t>
+          <t>-0,93; 4,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,56</t>
+          <t>-2,89; 2,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,04</t>
+          <t>0,25; 6,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,97</t>
+          <t>-2,4; 2,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,39</t>
+          <t>0,52; 4,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,84</t>
+          <t>-1,99; 1,78</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 49,45</t>
+          <t>-7,54; 52,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 28,58</t>
+          <t>-24,62; 27,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5,51; 74,71</t>
+          <t>1,57; 75,09</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 36,73</t>
+          <t>-21,75; 37,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,05; 48,48</t>
+          <t>3,53; 50,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 20,1</t>
+          <t>-18,36; 19,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 19,44</t>
+          <t>-9,96; 20,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 32,2</t>
+          <t>-1,2; 34,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 37,52</t>
+          <t>-0,8; 36,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 37,87</t>
+          <t>-1,58; 36,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 22,36</t>
+          <t>-2,53; 20,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 27,83</t>
+          <t>2,41; 27,99</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,31; —</t>
+          <t>-59,61; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,19 +735,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,36; —</t>
+          <t>-54,29; 1052,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 2005,55</t>
+          <t>-8,24; 1460,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 5,83</t>
+          <t>-8,58; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 5,48</t>
+          <t>-10,26; 5,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 8,3</t>
+          <t>-7,31; 7,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 4,45</t>
+          <t>-9,49; 3,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,62</t>
+          <t>-6,38; 4,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,57</t>
+          <t>-7,3; 3,34</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,97; 54,27</t>
+          <t>-45,08; 53,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,3; 49,32</t>
+          <t>-53,47; 54,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 113,75</t>
+          <t>-46,5; 98,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,4; 59,96</t>
+          <t>-62,92; 49,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 43,16</t>
+          <t>-38,32; 43,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,79; 22,22</t>
+          <t>-45,82; 32,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 6,92</t>
+          <t>-4,16; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 1,62</t>
+          <t>-8,65; 1,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 6,83</t>
+          <t>-3,58; 6,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,1</t>
+          <t>-6,19; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,98</t>
+          <t>-2,53; 5,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,8</t>
+          <t>-5,9; 0,64</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 76,08</t>
+          <t>-29,92; 72,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 14,91</t>
+          <t>-58,11; 16,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 89,27</t>
+          <t>-27,64; 85,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 40,18</t>
+          <t>-48,11; 46,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 52,06</t>
+          <t>-18,17; 55,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 8,96</t>
+          <t>-44,73; 8,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,84</t>
+          <t>-5,38; 5,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 5,27</t>
+          <t>-5,72; 5,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,32</t>
+          <t>0,06; 10,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,21</t>
+          <t>-3,63; 5,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,96</t>
+          <t>-1,12; 6,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,11</t>
+          <t>-3,17; 4,03</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 87,24</t>
+          <t>-45,53; 94,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,74; 78,94</t>
+          <t>-49,3; 87,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 243,12</t>
+          <t>-5,87; 252,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 124,06</t>
+          <t>-41,61; 136,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 99,58</t>
+          <t>-14,7; 113,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 71,36</t>
+          <t>-32,71; 65,43</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 10,57</t>
+          <t>0,19; 10,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,78</t>
+          <t>-2,74; 7,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,66</t>
+          <t>-1,09; 9,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,4</t>
+          <t>-3,93; 5,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,13; 8,76</t>
+          <t>1,19; 8,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,17</t>
+          <t>-2,08; 4,94</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 187,42</t>
+          <t>-5,35; 185,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 121,17</t>
+          <t>-28,87; 127,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 132,11</t>
+          <t>-10,16; 135,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 89,81</t>
+          <t>-34,54; 81,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,42; 122,06</t>
+          <t>11,51; 115,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 73,0</t>
+          <t>-19,86; 66,71</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,74</t>
+          <t>-0,99; 4,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,45</t>
+          <t>-3,1; 2,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,04</t>
+          <t>0,4; 6,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,83</t>
+          <t>-2,4; 2,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,68</t>
+          <t>0,44; 4,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,78</t>
+          <t>-2,14; 1,98</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 52,8</t>
+          <t>-8,7; 51,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 27,93</t>
+          <t>-25,2; 22,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1,57; 75,09</t>
+          <t>3,3; 76,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 37,1</t>
+          <t>-22,7; 36,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,53; 50,5</t>
+          <t>4,46; 51,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 19,63</t>
+          <t>-19,22; 22,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,35</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,41</t>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 20,05</t>
+          <t>-3,6; 9,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 34,15</t>
+          <t>-6,19; 6,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 36,09</t>
+          <t>-7,22; 5,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 36,14</t>
+          <t>-6,41; 7,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 20,59</t>
+          <t>-3,57; 5,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 27,99</t>
+          <t>-3,95; 5,2</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>238,38%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>357,45%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>322,34%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>162,02%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>271,97%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,07; 131,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,61; —</t>
+          <t>-45,38; 98,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,96; 62,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,33; 72,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,29; 1052,76</t>
+          <t>-25,43; 60,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1460,77</t>
+          <t>-28,89; 54,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,58</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 5,87</t>
+          <t>-4,74; 6,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 5,49</t>
+          <t>-6,55; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 7,4</t>
+          <t>-4,71; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,89</t>
+          <t>-8,56; 1,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,3</t>
+          <t>-2,7; 5,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 3,34</t>
+          <t>-5,91; 1,2</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,26%</t>
+          <t>-13,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,47%</t>
+          <t>-29,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>-22,67%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 53,76</t>
+          <t>-33,08; 78,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 54,0</t>
+          <t>-48,92; 41,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 98,66</t>
+          <t>-32,07; 66,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 49,78</t>
+          <t>-56,52; 17,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 43,97</t>
+          <t>-20,21; 54,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 32,23</t>
+          <t>-44,36; 12,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,64</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 6,51</t>
+          <t>-0,71; 10,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 1,41</t>
+          <t>-3,73; 5,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 6,46</t>
+          <t>-5,03; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,41</t>
+          <t>-5,79; 5,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,08</t>
+          <t>-1,62; 6,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,64</t>
+          <t>-3,18; 3,89</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>75,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,94%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,67%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 72,89</t>
+          <t>-11,45; 245,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,11; 16,73</t>
+          <t>-44,18; 122,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 85,81</t>
+          <t>-46,79; 89,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 46,05</t>
+          <t>-49,58; 78,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 55,32</t>
+          <t>-17,78; 101,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 8,05</t>
+          <t>-33,44; 66,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,91</t>
+          <t>-0,89; 10,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 5,18</t>
+          <t>-3,91; 6,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,44</t>
+          <t>0,15; 10,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 5,71</t>
+          <t>-3,05; 6,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 6,77</t>
+          <t>0,79; 8,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 4,03</t>
+          <t>-2,61; 5,09</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>66,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>15,59%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 94,4</t>
+          <t>-8,42; 144,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 87,32</t>
+          <t>-34,31; 89,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 252,49</t>
+          <t>0,92; 176,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 136,76</t>
+          <t>-30,19; 112,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 113,75</t>
+          <t>6,59; 119,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 65,43</t>
+          <t>-23,51; 70,74</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,65</t>
+          <t>0,6; 6,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 7,02</t>
+          <t>-2,38; 2,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 9,84</t>
+          <t>-1,21; 4,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,93</t>
+          <t>-3,11; 2,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,26</t>
+          <t>0,42; 4,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,94</t>
+          <t>-1,91; 1,84</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>-4,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>-1,42%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 185,82</t>
+          <t>5,51; 74,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 127,2</t>
+          <t>-22,59; 36,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 135,83</t>
+          <t>-10,22; 49,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 81,59</t>
+          <t>-25,45; 28,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,51; 115,49</t>
+          <t>4,05; 48,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 66,71</t>
+          <t>-17,42; 20,1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 4,75</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 2,02</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 6,24</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 2,9</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 4,66</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 1,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>16,1%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-4,08%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>36,14%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>25,26%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; 51,9</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-25,2; 22,14</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 76,14</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 36,53</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 51,9</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; 22,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
